--- a/biology/Botanique/Parc_mémorial_Shōwa/Parc_mémorial_Shōwa.xlsx
+++ b/biology/Botanique/Parc_mémorial_Shōwa/Parc_mémorial_Shōwa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_m%C3%A9morial_Sh%C5%8Dwa</t>
+          <t>Parc_mémorial_Shōwa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc mémorial commémoratif Shōwa (国営昭和記念公園, Kokuei Shōwa Kinen Kōen?) est un « parc gouvernemental national » situé à Akishima et Tachikawa au Japon.
 Il est ouvert en 1983 dans le cadre des festivités organisées à l'occasion du jubilé d'or de l'empereur Shōwa.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_m%C3%A9morial_Sh%C5%8Dwa</t>
+          <t>Parc_mémorial_Shōwa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_m%C3%A9morial_Sh%C5%8Dwa</t>
+          <t>Parc_mémorial_Shōwa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Showa Memorial Park » (voir la liste des auteurs).
  Portail de Tokyo   Portail du jardinage et de l’horticulture                    </t>
